--- a/GoogleCalendarTest/bin/Debug/Calendar TEMPLATE.xlsx
+++ b/GoogleCalendarTest/bin/Debug/Calendar TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\Documents\visual studio 2013\Projects\GoogleCalendarTest\CalendarGenerator.Utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GoogleCalendarTest\CalendarGenerator.Utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -274,22 +274,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -370,6 +359,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,13 +371,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -701,7 +693,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -709,7 +701,7 @@
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="10" customWidth="1"/>
@@ -717,14 +709,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="37"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -735,14 +727,14 @@
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
     </row>
@@ -764,7 +756,7 @@
       <c r="E4" s="21"/>
       <c r="F4" s="18"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -774,7 +766,7 @@
       <c r="E5" s="23"/>
       <c r="F5" s="18"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -784,7 +776,7 @@
       <c r="E6" s="21"/>
       <c r="F6" s="18"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
@@ -794,7 +786,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
@@ -804,7 +796,7 @@
       <c r="E8" s="18"/>
       <c r="F8" s="23"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
@@ -814,7 +806,7 @@
       <c r="E9" s="21"/>
       <c r="F9" s="18"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
@@ -824,7 +816,7 @@
       <c r="E10" s="21"/>
       <c r="F10" s="18"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
@@ -834,7 +826,7 @@
       <c r="E11" s="23"/>
       <c r="F11" s="18"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
@@ -844,7 +836,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="18"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
@@ -854,7 +846,7 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
@@ -864,7 +856,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="18"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
@@ -874,7 +866,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="18"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
@@ -884,7 +876,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
@@ -894,7 +886,7 @@
       <c r="E17" s="29"/>
       <c r="F17" s="18"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
@@ -904,7 +896,7 @@
       <c r="E18" s="21"/>
       <c r="F18" s="18"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -914,7 +906,7 @@
       <c r="E19" s="23"/>
       <c r="F19" s="18"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
@@ -924,7 +916,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="18"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
@@ -934,7 +926,7 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
@@ -944,7 +936,7 @@
       <c r="E22" s="18"/>
       <c r="F22" s="23"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
@@ -954,7 +946,7 @@
       <c r="E23" s="21"/>
       <c r="F23" s="18"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -964,7 +956,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="18"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -974,7 +966,7 @@
       <c r="E25" s="23"/>
       <c r="F25" s="18"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
@@ -984,7 +976,7 @@
       <c r="E26" s="21"/>
       <c r="F26" s="18"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
@@ -994,7 +986,7 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
@@ -1004,7 +996,7 @@
       <c r="E28" s="21"/>
       <c r="F28" s="18"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="39"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
@@ -1014,7 +1006,7 @@
       <c r="E29" s="21"/>
       <c r="F29" s="18"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
@@ -1024,7 +1016,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="39"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
@@ -1034,7 +1026,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="18"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="39"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
@@ -1044,7 +1036,7 @@
       <c r="E32" s="21"/>
       <c r="F32" s="18"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
@@ -1054,7 +1046,7 @@
       <c r="E33" s="21"/>
       <c r="F33" s="18"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="12"/>

--- a/GoogleCalendarTest/bin/Debug/Calendar TEMPLATE.xlsx
+++ b/GoogleCalendarTest/bin/Debug/Calendar TEMPLATE.xlsx
@@ -278,107 +278,121 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,408 +707,408 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="56.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="56.5703125" style="37" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+    <row r="1" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="39"/>
-    </row>
-    <row r="7" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="39"/>
-    </row>
-    <row r="8" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="39"/>
-    </row>
-    <row r="9" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="10" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="40"/>
-    </row>
-    <row r="27" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G47" s="33"/>
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G43" s="36"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G47" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/GoogleCalendarTest/bin/Debug/Calendar TEMPLATE.xlsx
+++ b/GoogleCalendarTest/bin/Debug/Calendar TEMPLATE.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>ASC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>BIRTHDAYS</t>
   </si>
@@ -114,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -249,21 +246,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -278,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -286,112 +268,100 @@
     <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,416 +674,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="35" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="56.5703125" style="37" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="6.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="65.7109375" style="30" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="13"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="26"/>
-    </row>
-    <row r="34" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G40" s="36"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G42" s="36"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G43" s="36"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G45" s="36"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G46" s="36"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G47" s="36"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
